--- a/Data/EC/NIT-9006736105.xlsx
+++ b/Data/EC/NIT-9006736105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C426D1-9AC5-4341-ACEF-1F5D7A8463EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2737E276-D6E2-43A1-BE0B-4BFD7FEB4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC141FA6-E3B1-4FB6-B17B-9813FEDD5FAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{477F3064-E282-41B2-9118-EE7A2F91092E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,12 +80,6 @@
     <t>ANTONIO JOSE RODRIGUEZ AGUAS</t>
   </si>
   <si>
-    <t>9143498</t>
-  </si>
-  <si>
-    <t>RICARDO AGRESOTH JULIO</t>
-  </si>
-  <si>
     <t>1001874478</t>
   </si>
   <si>
@@ -102,6 +96,180 @@
   </si>
   <si>
     <t>ROBINSON RAFAEL MENDEZ PASTRANA</t>
+  </si>
+  <si>
+    <t>1143240357</t>
+  </si>
+  <si>
+    <t>CRISTIAN YHORDANO MARULANDA SIERRA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1143148945</t>
+  </si>
+  <si>
+    <t>ALDAIR DE LA ROSA SUAREZ</t>
+  </si>
+  <si>
+    <t>1045678284</t>
+  </si>
+  <si>
+    <t>WILLIAM EUSEBIO ARAGON RIOS</t>
+  </si>
+  <si>
+    <t>1052968285</t>
+  </si>
+  <si>
+    <t>EMIL ENRIQUE SOTOMAYOR MORENO</t>
+  </si>
+  <si>
+    <t>1042444907</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS ALVAREZ RUBIO</t>
+  </si>
+  <si>
+    <t>1007219827</t>
+  </si>
+  <si>
+    <t>GABRIEL DAVID MONCADA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>1002500554</t>
+  </si>
+  <si>
+    <t>ANGEL MIGUEL GONZALEZ CARDEÑO</t>
+  </si>
+  <si>
+    <t>1052986240</t>
+  </si>
+  <si>
+    <t>JUAN JOSE MERCADO ACOSTA</t>
+  </si>
+  <si>
+    <t>1044430461</t>
+  </si>
+  <si>
+    <t>JADER ALEXANDER ROJAS GAVIRIA</t>
+  </si>
+  <si>
+    <t>1143442194</t>
+  </si>
+  <si>
+    <t>JOHANIS VARGAS MELÃ©NDEZ</t>
+  </si>
+  <si>
+    <t>72348055</t>
+  </si>
+  <si>
+    <t>NESTOR CARLOS DURAN SANCHEZ</t>
+  </si>
+  <si>
+    <t>1129538368</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CRUZ MERCADO</t>
+  </si>
+  <si>
+    <t>1004821274</t>
+  </si>
+  <si>
+    <t>SAMIR ASCANIO QUINTERO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5445104</t>
+  </si>
+  <si>
+    <t>ALIO HENDERSON CABRERA CARVAJAL</t>
+  </si>
+  <si>
+    <t>1090508813</t>
+  </si>
+  <si>
+    <t>JHORMAR ANDRES YARURO MORANTES</t>
+  </si>
+  <si>
+    <t>5487224</t>
+  </si>
+  <si>
+    <t>IRIVIS ALEXANDER ALVAREZ VILLALOBOS</t>
+  </si>
+  <si>
+    <t>84454271</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL REYES GAMEZ</t>
+  </si>
+  <si>
+    <t>7000329</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO MONTILLA CABRERA</t>
+  </si>
+  <si>
+    <t>1048274807</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO VEGA PADILLA</t>
+  </si>
+  <si>
+    <t>1091073588</t>
+  </si>
+  <si>
+    <t>EIDER BAUTISTA PEREZ</t>
+  </si>
+  <si>
+    <t>13376448</t>
+  </si>
+  <si>
+    <t>RAMON ANTONIO ASCANIO ASCANIO</t>
+  </si>
+  <si>
+    <t>88210723</t>
+  </si>
+  <si>
+    <t>JAVIER CLARO CARRASCAL</t>
+  </si>
+  <si>
+    <t>1004878063</t>
+  </si>
+  <si>
+    <t>KENDRI DUVAN MARTINEZ MONTEJO</t>
+  </si>
+  <si>
+    <t>1007552476</t>
+  </si>
+  <si>
+    <t>JHON HECTOR MALPICA RIVERA</t>
+  </si>
+  <si>
+    <t>79551404</t>
+  </si>
+  <si>
+    <t>LUIS JESUS BAUTISTA</t>
+  </si>
+  <si>
+    <t>1004904720</t>
+  </si>
+  <si>
+    <t>RICHARD EDUARDO NEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>13199475</t>
+  </si>
+  <si>
+    <t>PEDRO ORTEGA TORRES</t>
+  </si>
+  <si>
+    <t>1042856810</t>
+  </si>
+  <si>
+    <t>KEVIN YESID MOVILLA RODRIGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +368,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +583,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +627,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2AF57D-86B2-5484-000F-164E4B61A3C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C226E6-2763-98E6-64D1-5A4DC133873F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +1034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3BC7A-A82C-483D-A3B7-71CDBCB2C385}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0282E4C3-2EAF-48D7-AF18-810C0CC25A66}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -878,7 +1046,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -891,7 +1059,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +1104,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +1136,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>79716</v>
+        <v>1567748</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,17 +1152,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1021,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1090,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>11388</v>
+        <v>15184</v>
       </c>
       <c r="G18" s="18">
         <v>1423500</v>
@@ -1113,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>15184</v>
+        <v>11388</v>
       </c>
       <c r="G19" s="18">
         <v>1423500</v>
@@ -1146,56 +1314,792 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G21" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="18">
+        <v>36062</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
+      <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="18">
+        <v>49348</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="18">
+        <v>34164</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="18">
+        <v>15184</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="18">
+        <v>15184</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="18">
+        <v>15184</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="18">
+        <v>15184</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="24">
+        <v>47450</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006736105.xlsx
+++ b/Data/EC/NIT-9006736105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2737E276-D6E2-43A1-BE0B-4BFD7FEB4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2CD2DB-FAC2-446D-AAF5-CF4D32C018F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{477F3064-E282-41B2-9118-EE7A2F91092E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4824654-0F57-433B-885E-0E442C3BD7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -104,7 +104,13 @@
     <t>CRISTIAN YHORDANO MARULANDA SIERRA</t>
   </si>
   <si>
-    <t>2508</t>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>1051746188</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO BELEÑO ROJAS</t>
   </si>
   <si>
     <t>1143148945</t>
@@ -143,10 +149,10 @@
     <t>ANGEL MIGUEL GONZALEZ CARDEÑO</t>
   </si>
   <si>
-    <t>1052986240</t>
-  </si>
-  <si>
-    <t>JUAN JOSE MERCADO ACOSTA</t>
+    <t>9167329</t>
+  </si>
+  <si>
+    <t>HEBERTO BELEÑO CARO</t>
   </si>
   <si>
     <t>1044430461</t>
@@ -167,69 +173,33 @@
     <t>NESTOR CARLOS DURAN SANCHEZ</t>
   </si>
   <si>
-    <t>1129538368</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CRUZ MERCADO</t>
-  </si>
-  <si>
-    <t>1004821274</t>
-  </si>
-  <si>
-    <t>SAMIR ASCANIO QUINTERO</t>
+    <t>1090508813</t>
+  </si>
+  <si>
+    <t>JHORMAR ANDRES YARURO MORANTES</t>
   </si>
   <si>
     <t>PPT</t>
   </si>
   <si>
-    <t>5445104</t>
-  </si>
-  <si>
-    <t>ALIO HENDERSON CABRERA CARVAJAL</t>
-  </si>
-  <si>
-    <t>1090508813</t>
-  </si>
-  <si>
-    <t>JHORMAR ANDRES YARURO MORANTES</t>
-  </si>
-  <si>
     <t>5487224</t>
   </si>
   <si>
     <t>IRIVIS ALEXANDER ALVAREZ VILLALOBOS</t>
   </si>
   <si>
-    <t>84454271</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL REYES GAMEZ</t>
-  </si>
-  <si>
     <t>7000329</t>
   </si>
   <si>
     <t>JOSE ALFREDO MONTILLA CABRERA</t>
   </si>
   <si>
-    <t>1048274807</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO VEGA PADILLA</t>
-  </si>
-  <si>
     <t>1091073588</t>
   </si>
   <si>
     <t>EIDER BAUTISTA PEREZ</t>
   </si>
   <si>
-    <t>13376448</t>
-  </si>
-  <si>
-    <t>RAMON ANTONIO ASCANIO ASCANIO</t>
-  </si>
-  <si>
     <t>88210723</t>
   </si>
   <si>
@@ -264,12 +234,6 @@
   </si>
   <si>
     <t>PEDRO ORTEGA TORRES</t>
-  </si>
-  <si>
-    <t>1042856810</t>
-  </si>
-  <si>
-    <t>KEVIN YESID MOVILLA RODRIGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -368,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -383,7 +345,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -577,29 +541,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,19 +582,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C226E6-2763-98E6-64D1-5A4DC133873F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDD8986-E5C1-4AD9-ED2D-1F741D9A82FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0282E4C3-2EAF-48D7-AF18-810C0CC25A66}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F30619-0C71-4E6A-9725-ABE8D6517F4A}">
+  <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1057,57 +1027,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006736105</v>
       </c>
@@ -1136,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1567748</v>
+        <v>1605708</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1152,14 +1122,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -1189,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1208,18 +1178,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>15184</v>
       </c>
-      <c r="G16" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1231,18 +1201,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>15184</v>
       </c>
-      <c r="G17" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1254,18 +1224,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>15184</v>
       </c>
-      <c r="G18" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1277,18 +1247,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>11388</v>
       </c>
-      <c r="G19" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1300,18 +1270,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>11388</v>
       </c>
-      <c r="G20" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1323,64 +1293,64 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1392,18 +1362,18 @@
       <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="E24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1415,18 +1385,18 @@
       <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="18">
-        <v>36062</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="E25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1438,18 +1408,18 @@
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="E26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1461,18 +1431,18 @@
       <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="E27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1484,18 +1454,18 @@
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="E28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1507,18 +1477,18 @@
       <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="E29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1530,18 +1500,18 @@
       <c r="D30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1553,18 +1523,18 @@
       <c r="D31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="E31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1576,18 +1546,18 @@
       <c r="D32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="E32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1599,110 +1569,110 @@
       <c r="D33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="E33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1714,18 +1684,18 @@
       <c r="D38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="E38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1737,22 +1707,22 @@
       <c r="D39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="E39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>50</v>
@@ -1760,22 +1730,22 @@
       <c r="D40" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="E40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>52</v>
@@ -1783,18 +1753,18 @@
       <c r="D41" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="E41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1806,22 +1776,22 @@
       <c r="D42" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="E42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>56</v>
@@ -1829,18 +1799,18 @@
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="E43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1852,18 +1822,18 @@
       <c r="D44" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="E44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1875,18 +1845,18 @@
       <c r="D45" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="E45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1898,208 +1868,70 @@
       <c r="D46" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="E46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
+      <c r="B47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="18">
-        <v>34164</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="18">
-        <v>15184</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="18">
-        <v>15184</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="18">
-        <v>15184</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="E47" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="26">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="26">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="H52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="18">
-        <v>15184</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="34"/>
+      <c r="H53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="24">
-        <v>47450</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
